--- a/Resources/uploadsample.xlsx
+++ b/Resources/uploadsample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\livieric\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Livi\Documents\GitHub\visualdata\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>company</t>
   </si>
@@ -42,12 +42,30 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,6 +190,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -207,6 +242,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -388,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -396,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -404,7 +456,55 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
